--- a/files/I miei movimenti conto.xlsx
+++ b/files/I miei movimenti conto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\expense_classifier\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3AFD2-0C89-4739-B368-2F0589C31B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03035D7F-F2B4-4293-BDA4-F2A2F2AA3FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Movimenti conto" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Movimenti conto'!$A$19:$G$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Movimenti conto'!$A$19:$G$25</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Movimenti Conto</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>Bonifico In Uscita  / Addebito Generico</t>
-  </si>
-  <si>
-    <t>Bonifico Periodico</t>
-  </si>
-  <si>
-    <t>House Rent</t>
   </si>
   <si>
     <t>xxxxxxxxxxx</t>
@@ -523,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:G979"/>
+  <dimension ref="B4:G978"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -553,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -569,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>5</v>
@@ -583,7 +577,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>8</v>
@@ -597,7 +591,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
@@ -611,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
@@ -625,7 +619,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>17</v>
@@ -639,7 +633,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -674,7 +668,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>27</v>
@@ -694,7 +688,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>27</v>
@@ -715,7 +709,7 @@
         <v>29</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>27</v>
@@ -735,7 +729,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>27</v>
@@ -755,7 +749,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>27</v>
@@ -775,7 +769,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>27</v>
@@ -784,26 +778,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="7">
-        <v>45049</v>
-      </c>
-      <c r="C26" s="7">
-        <v>45049</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="9">
-        <v>-1500</v>
-      </c>
-    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1756,9 +1731,8 @@
     <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A19:G26" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A19:G25" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
